--- a/data/tickets.xlsx
+++ b/data/tickets.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SIVASANKAR\Desktop\GroqGenAIFileVectorStore\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0919F75-9F87-4930-84A7-3BB241A32493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
   <si>
     <t>Ticket ID</t>
   </si>
@@ -284,13 +290,22 @@
   </si>
   <si>
     <t>Cleaned cooling fan and applied thermal paste.</t>
+  </si>
+  <si>
+    <t>TCKT-1021</t>
+  </si>
+  <si>
+    <t>Laptop battery issue</t>
+  </si>
+  <si>
+    <t>Check charger, if charger is working fine then replace with new battery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,13 +368,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -397,7 +420,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -431,6 +454,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -465,9 +489,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -640,14 +665,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="125.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -681,7 +715,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -698,7 +732,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -715,7 +749,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -732,7 +766,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -749,7 +783,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -766,7 +800,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -783,7 +817,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -800,7 +834,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -817,7 +851,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -834,7 +868,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -851,7 +885,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -868,7 +902,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -885,7 +919,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -902,7 +936,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -919,7 +953,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -936,7 +970,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -953,7 +987,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -970,7 +1004,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -987,7 +1021,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1002,6 +1036,23 @@
       </c>
       <c r="E21" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
